--- a/inputs/ERCOT_inputs/ALEAF_ERCOT.xlsx
+++ b/inputs/ERCOT_inputs/ALEAF_ERCOT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\biegelk\abce\inputs\ERCOT_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C4C32E-A6E1-4A99-8903-0EACFEDD001F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2360E0-52F0-4C8B-AFD6-28785A199330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="851" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:BE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1725,10 +1725,10 @@
         <v>81</v>
       </c>
       <c r="I7" s="9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J7" s="9">
-        <v>1050</v>
+        <v>400</v>
       </c>
       <c r="K7" s="9">
         <v>0.9</v>
@@ -1785,12 +1785,6 @@
       </c>
       <c r="N8" s="12">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57">
-      <c r="J10">
-        <f>SUMPRODUCT(J2:J8, I2:I8, K2:K8)</f>
-        <v>79379</v>
       </c>
     </row>
     <row r="15" spans="1:57">
